--- a/examples/EMTF_vu13p/src/protocol_MPCX.xlsx
+++ b/examples/EMTF_vu13p/src/protocol_MPCX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mpcx_mgt_atts" sheetId="1" state="visible" r:id="rId2"/>
@@ -2122,6 +2122,12 @@
     <t xml:space="preserve">CPLLLOCKEN</t>
   </si>
   <si>
+    <t xml:space="preserve">CPLLPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1’b1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPLLREFCLKSEL</t>
   </si>
   <si>
@@ -3353,12 +3359,6 @@
   </si>
   <si>
     <t xml:space="preserve">should be 4’b1010 for 800 mV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RXPD, TXPD,QPLLPD,CPLLPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">set all of these to all 1, to have power down by default</t>
   </si>
   <si>
     <t xml:space="preserve">If RXSLIDE is used, set the following:</t>
@@ -3591,10 +3591,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D718"/>
+  <dimension ref="A1:D719"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A375" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A391" activeCellId="0" sqref="A391"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A499" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A525" activeCellId="1" sqref="C21:I21 A525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8835,24 +8835,24 @@
         <v>699</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>533</v>
+        <v>700</v>
       </c>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>6</v>
+        <v>533</v>
       </c>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B526" s="4" t="s">
         <v>6</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B527" s="4" t="s">
         <v>6</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B528" s="4" t="s">
         <v>6</v>
@@ -8882,7 +8882,7 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B529" s="4" t="s">
         <v>6</v>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B530" s="4" t="s">
         <v>6</v>
@@ -8902,7 +8902,7 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B531" s="4" t="s">
         <v>6</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B532" s="4" t="s">
         <v>6</v>
@@ -8922,7 +8922,7 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B533" s="4" t="s">
         <v>6</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B534" s="4" t="s">
         <v>6</v>
@@ -8942,27 +8942,27 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B537" s="4" t="s">
         <v>6</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B538" s="4" t="s">
         <v>6</v>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B539" s="4" t="s">
         <v>6</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B540" s="4" t="s">
         <v>6</v>
@@ -9002,27 +9002,27 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B543" s="4" t="s">
         <v>6</v>
@@ -9032,7 +9032,7 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B544" s="4" t="s">
         <v>6</v>
@@ -9042,7 +9042,7 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B545" s="4" t="s">
         <v>6</v>
@@ -9052,27 +9052,27 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B548" s="4" t="s">
         <v>6</v>
@@ -9082,7 +9082,7 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B549" s="4" t="s">
         <v>6</v>
@@ -9092,7 +9092,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B550" s="4" t="s">
         <v>6</v>
@@ -9102,7 +9102,7 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B551" s="4" t="s">
         <v>6</v>
@@ -9112,7 +9112,7 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B552" s="4" t="s">
         <v>6</v>
@@ -9122,7 +9122,7 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B553" s="4" t="s">
         <v>6</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B554" s="4" t="s">
         <v>6</v>
@@ -9142,27 +9142,27 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B557" s="4" t="s">
         <v>6</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="4" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B558" s="4" t="s">
         <v>6</v>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B559" s="4" t="s">
         <v>6</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="4" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B560" s="4" t="s">
         <v>6</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B561" s="4" t="s">
         <v>6</v>
@@ -9212,37 +9212,37 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="4" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="4" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B565" s="4" t="s">
         <v>6</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B566" s="4" t="s">
         <v>6</v>
@@ -9262,37 +9262,37 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>470</v>
+        <v>6</v>
       </c>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>29</v>
+        <v>470</v>
       </c>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B570" s="4" t="s">
         <v>6</v>
@@ -9302,10 +9302,10 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>747</v>
+        <v>6</v>
       </c>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -9315,14 +9315,14 @@
         <v>748</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>6</v>
+        <v>749</v>
       </c>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B573" s="4" t="s">
         <v>6</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B574" s="4" t="s">
         <v>6</v>
@@ -9342,7 +9342,7 @@
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B575" s="4" t="s">
         <v>6</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B576" s="4" t="s">
         <v>6</v>
@@ -9362,7 +9362,7 @@
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B577" s="4" t="s">
         <v>6</v>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B578" s="4" t="s">
         <v>6</v>
@@ -9382,7 +9382,7 @@
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B579" s="4" t="s">
         <v>6</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B580" s="4" t="s">
         <v>6</v>
@@ -9402,7 +9402,7 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B581" s="4" t="s">
         <v>6</v>
@@ -9412,7 +9412,7 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B582" s="4" t="s">
         <v>6</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B583" s="4" t="s">
         <v>6</v>
@@ -9432,7 +9432,7 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B584" s="4" t="s">
         <v>6</v>
@@ -9442,7 +9442,7 @@
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B585" s="4" t="s">
         <v>6</v>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B586" s="4" t="s">
         <v>6</v>
@@ -9462,7 +9462,7 @@
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B587" s="4" t="s">
         <v>6</v>
@@ -9472,7 +9472,7 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B588" s="4" t="s">
         <v>6</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B589" s="4" t="s">
         <v>6</v>
@@ -9492,7 +9492,7 @@
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B590" s="4" t="s">
         <v>6</v>
@@ -9502,7 +9502,7 @@
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B591" s="4" t="s">
         <v>6</v>
@@ -9512,7 +9512,7 @@
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B592" s="4" t="s">
         <v>6</v>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B593" s="4" t="s">
         <v>6</v>
@@ -9532,7 +9532,7 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B594" s="4" t="s">
         <v>6</v>
@@ -9542,7 +9542,7 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B595" s="4" t="s">
         <v>6</v>
@@ -9552,7 +9552,7 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B596" s="4" t="s">
         <v>6</v>
@@ -9562,7 +9562,7 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B597" s="4" t="s">
         <v>6</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B598" s="4" t="s">
         <v>6</v>
@@ -9582,7 +9582,7 @@
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B599" s="4" t="s">
         <v>6</v>
@@ -9592,7 +9592,7 @@
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B600" s="4" t="s">
         <v>6</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B601" s="4" t="s">
         <v>6</v>
@@ -9612,7 +9612,7 @@
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B602" s="4" t="s">
         <v>6</v>
@@ -9622,7 +9622,7 @@
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B603" s="4" t="s">
         <v>6</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B604" s="4" t="s">
         <v>6</v>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B605" s="4" t="s">
         <v>6</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B606" s="4" t="s">
         <v>6</v>
@@ -9662,7 +9662,7 @@
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B607" s="4" t="s">
         <v>6</v>
@@ -9672,7 +9672,7 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B608" s="4" t="s">
         <v>6</v>
@@ -9682,7 +9682,7 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B609" s="4" t="s">
         <v>6</v>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B610" s="4" t="s">
         <v>6</v>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="4" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B611" s="4" t="s">
         <v>6</v>
@@ -9712,7 +9712,7 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B612" s="4" t="s">
         <v>6</v>
@@ -9722,27 +9722,27 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B615" s="4" t="s">
         <v>6</v>
@@ -9752,7 +9752,7 @@
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B616" s="4" t="s">
         <v>6</v>
@@ -9762,27 +9762,27 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>462</v>
+        <v>6</v>
       </c>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B619" s="4" t="s">
         <v>6</v>
@@ -9792,7 +9792,7 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B620" s="4" t="s">
         <v>6</v>
@@ -9802,27 +9802,27 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B623" s="4" t="s">
         <v>6</v>
@@ -9832,7 +9832,7 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B624" s="4" t="s">
         <v>6</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B625" s="4" t="s">
         <v>6</v>
@@ -9852,7 +9852,7 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B626" s="4" t="s">
         <v>6</v>
@@ -9862,7 +9862,7 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B627" s="4" t="s">
         <v>6</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B628" s="4" t="s">
         <v>6</v>
@@ -9882,7 +9882,7 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B629" s="4" t="s">
         <v>6</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B630" s="4" t="s">
         <v>6</v>
@@ -9902,27 +9902,27 @@
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B633" s="4" t="s">
         <v>6</v>
@@ -9932,7 +9932,7 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B634" s="4" t="s">
         <v>6</v>
@@ -9942,7 +9942,7 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B635" s="4" t="s">
         <v>6</v>
@@ -9952,17 +9952,17 @@
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B637" s="4" t="s">
         <v>501</v>
@@ -9972,17 +9972,17 @@
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>6</v>
+        <v>501</v>
       </c>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B639" s="4" t="s">
         <v>6</v>
@@ -9992,27 +9992,27 @@
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B642" s="4" t="s">
         <v>6</v>
@@ -10022,7 +10022,7 @@
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B643" s="4" t="s">
         <v>6</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B644" s="4" t="s">
         <v>6</v>
@@ -10042,27 +10042,27 @@
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B647" s="4" t="s">
         <v>6</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B648" s="4" t="s">
         <v>6</v>
@@ -10082,47 +10082,47 @@
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B653" s="4" t="s">
         <v>6</v>
@@ -10132,7 +10132,7 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B654" s="4" t="s">
         <v>6</v>
@@ -10142,7 +10142,7 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B655" s="4" t="s">
         <v>6</v>
@@ -10152,37 +10152,37 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B659" s="4" t="s">
         <v>6</v>
@@ -10192,10 +10192,10 @@
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>837</v>
+        <v>6</v>
       </c>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -10205,24 +10205,24 @@
         <v>838</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>572</v>
+        <v>839</v>
       </c>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B663" s="4" t="s">
         <v>6</v>
@@ -10232,7 +10232,7 @@
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B664" s="4" t="s">
         <v>6</v>
@@ -10242,7 +10242,7 @@
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B665" s="4" t="s">
         <v>6</v>
@@ -10252,17 +10252,17 @@
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>572</v>
+        <v>6</v>
       </c>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B667" s="4" t="s">
         <v>572</v>
@@ -10272,17 +10272,17 @@
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>6</v>
+        <v>572</v>
       </c>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B669" s="4" t="s">
         <v>6</v>
@@ -10292,30 +10292,30 @@
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>850</v>
+        <v>6</v>
       </c>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -10325,24 +10325,24 @@
         <v>851</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>29</v>
+        <v>852</v>
       </c>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B675" s="4" t="s">
         <v>6</v>
@@ -10352,7 +10352,7 @@
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B676" s="4" t="s">
         <v>6</v>
@@ -10362,7 +10362,7 @@
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B677" s="4" t="s">
         <v>6</v>
@@ -10372,7 +10372,7 @@
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B678" s="4" t="s">
         <v>6</v>
@@ -10382,7 +10382,7 @@
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B679" s="4" t="s">
         <v>6</v>
@@ -10392,27 +10392,27 @@
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B682" s="4" t="s">
         <v>6</v>
@@ -10422,7 +10422,7 @@
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B683" s="4" t="s">
         <v>6</v>
@@ -10432,7 +10432,7 @@
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B684" s="4" t="s">
         <v>6</v>
@@ -10442,7 +10442,7 @@
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B685" s="4" t="s">
         <v>6</v>
@@ -10452,10 +10452,10 @@
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>865</v>
+        <v>6</v>
       </c>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -10465,24 +10465,24 @@
         <v>866</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>112</v>
+        <v>867</v>
       </c>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B689" s="4" t="s">
         <v>6</v>
@@ -10492,7 +10492,7 @@
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B690" s="4" t="s">
         <v>6</v>
@@ -10502,7 +10502,7 @@
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B691" s="4" t="s">
         <v>6</v>
@@ -10512,7 +10512,7 @@
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B692" s="4" t="s">
         <v>6</v>
@@ -10522,27 +10522,27 @@
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>6</v>
+        <v>462</v>
       </c>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B695" s="4" t="s">
         <v>6</v>
@@ -10552,27 +10552,27 @@
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B698" s="4" t="s">
         <v>6</v>
@@ -10582,7 +10582,7 @@
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B699" s="4" t="s">
         <v>6</v>
@@ -10592,7 +10592,7 @@
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B700" s="4" t="s">
         <v>6</v>
@@ -10602,7 +10602,7 @@
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B701" s="4" t="s">
         <v>6</v>
@@ -10612,7 +10612,7 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B702" s="4" t="s">
         <v>6</v>
@@ -10622,7 +10622,7 @@
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="4" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B703" s="4" t="s">
         <v>6</v>
@@ -10632,47 +10632,47 @@
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B708" s="4" t="s">
         <v>6</v>
@@ -10682,75 +10682,77 @@
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="4" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>470</v>
+        <v>134</v>
       </c>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>6</v>
+        <v>470</v>
       </c>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="B715" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A715" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C715" s="4"/>
+      <c r="D715" s="4"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B716" s="2" t="s">
         <v>6</v>
@@ -10758,7 +10760,7 @@
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B717" s="2" t="s">
         <v>6</v>
@@ -10766,9 +10768,17 @@
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B718" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B719" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10790,8 +10800,8 @@
   </sheetPr>
   <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B143" activeCellId="1" sqref="C21:I21 B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10817,7 +10827,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -10832,7 +10842,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -10842,7 +10852,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>29</v>
@@ -10852,7 +10862,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
@@ -10862,7 +10872,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -10872,7 +10882,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -10882,17 +10892,17 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C9" s="0"/>
       <c r="D9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>63</v>
@@ -10902,7 +10912,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -10912,7 +10922,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -10922,7 +10932,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -10932,27 +10942,27 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C14" s="0"/>
       <c r="D14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>385</v>
@@ -10962,7 +10972,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -10992,7 +11002,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
@@ -11002,7 +11012,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
@@ -11105,14 +11115,14 @@
         <v>198</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
@@ -11122,20 +11132,20 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C33" s="0"/>
       <c r="D33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C34" s="0"/>
       <c r="D34" s="0"/>
@@ -11182,107 +11192,107 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C39" s="0"/>
       <c r="D39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C40" s="0"/>
       <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C41" s="0"/>
       <c r="D41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C42" s="0"/>
       <c r="D42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C43" s="0"/>
       <c r="D43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C44" s="0"/>
       <c r="D44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C45" s="0"/>
       <c r="D45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C46" s="0"/>
       <c r="D46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C47" s="0"/>
       <c r="D47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C48" s="0"/>
       <c r="D48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>82</v>
@@ -11292,7 +11302,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>160</v>
@@ -11302,7 +11312,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>107</v>
@@ -11312,7 +11322,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>125</v>
@@ -11322,47 +11332,47 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C54" s="0"/>
       <c r="D54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C55" s="0"/>
       <c r="D55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C56" s="0"/>
       <c r="D56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>6</v>
@@ -11372,7 +11382,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>29</v>
@@ -11382,7 +11392,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B59" s="4" t="n">
         <v>1</v>
@@ -11392,7 +11402,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>10</v>
@@ -11402,7 +11412,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>10</v>
@@ -11412,7 +11422,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>10</v>
@@ -11422,77 +11432,77 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C63" s="0"/>
       <c r="D63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C64" s="0"/>
       <c r="D64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C65" s="0"/>
       <c r="D65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="C66" s="0"/>
       <c r="D66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C67" s="0"/>
       <c r="D67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C68" s="0"/>
       <c r="D68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C69" s="0"/>
       <c r="D69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>340</v>
@@ -11502,27 +11512,27 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C71" s="0"/>
       <c r="D71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="C72" s="0"/>
       <c r="D72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B73" s="4" t="n">
         <v>66</v>
@@ -11532,7 +11542,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B74" s="4" t="n">
         <v>80</v>
@@ -11542,7 +11552,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>107</v>
@@ -11552,7 +11562,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>125</v>
@@ -11562,47 +11572,47 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C77" s="0"/>
       <c r="D77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C78" s="0"/>
       <c r="D78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C79" s="0"/>
       <c r="D79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C80" s="0"/>
       <c r="D80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>6</v>
@@ -11612,7 +11622,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>29</v>
@@ -11622,7 +11632,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B83" s="4" t="n">
         <v>1</v>
@@ -11632,17 +11642,17 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="C84" s="0"/>
       <c r="D84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>10</v>
@@ -11652,7 +11662,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>10</v>
@@ -11665,14 +11675,14 @@
         <v>254</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C87" s="0"/>
       <c r="D87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>10</v>
@@ -11682,7 +11692,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>10</v>
@@ -11692,7 +11702,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>10</v>
@@ -11702,7 +11712,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>10</v>
@@ -11712,7 +11722,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>115</v>
@@ -11722,7 +11732,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>115</v>
@@ -11732,7 +11742,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>6</v>
@@ -11742,7 +11752,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>6</v>
@@ -11752,40 +11762,40 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C96" s="0"/>
       <c r="D96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C97" s="0"/>
       <c r="D97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C98" s="0"/>
       <c r="D98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>1000</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>998</v>
       </c>
       <c r="C99" s="0"/>
       <c r="D99" s="0"/>
@@ -11825,14 +11835,14 @@
         <v>527</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="C103" s="0"/>
       <c r="D103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>10</v>
@@ -11842,7 +11852,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>10</v>
@@ -11852,7 +11862,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>10</v>
@@ -11862,7 +11872,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>10</v>
@@ -11872,7 +11882,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>10</v>
@@ -11882,17 +11892,17 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="C109" s="0"/>
       <c r="D109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>10</v>
@@ -11902,7 +11912,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>29</v>
@@ -11912,7 +11922,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>29</v>
@@ -11922,7 +11932,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>29</v>
@@ -11932,7 +11942,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>29</v>
@@ -11942,17 +11952,17 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C115" s="0"/>
       <c r="D115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>63</v>
@@ -11962,7 +11972,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>6</v>
@@ -11972,7 +11982,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>63</v>
@@ -11982,7 +11992,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>6</v>
@@ -11992,7 +12002,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>6</v>
@@ -12002,7 +12012,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>6</v>
@@ -12012,7 +12022,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>6</v>
@@ -12022,7 +12032,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>6</v>
@@ -12032,7 +12042,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>6</v>
@@ -12042,7 +12052,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>6</v>
@@ -12052,7 +12062,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>6</v>
@@ -12062,7 +12072,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>6</v>
@@ -12072,7 +12082,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>6</v>
@@ -12082,7 +12092,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>6</v>
@@ -12092,7 +12102,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>6</v>
@@ -12102,7 +12112,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>6</v>
@@ -12112,7 +12122,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>6</v>
@@ -12122,7 +12132,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="4" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>6</v>
@@ -12132,7 +12142,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>112</v>
@@ -12142,7 +12152,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>112</v>
@@ -12152,7 +12162,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>572</v>
@@ -12162,7 +12172,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>572</v>
@@ -12172,7 +12182,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>6</v>
@@ -12182,7 +12192,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>6</v>
@@ -12192,7 +12202,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>572</v>
@@ -12202,7 +12212,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>6</v>
@@ -12212,7 +12222,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>29</v>
@@ -12222,17 +12232,17 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C143" s="0"/>
       <c r="D143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>533</v>
@@ -12242,7 +12252,7 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>6</v>
@@ -12252,7 +12262,7 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>6</v>
@@ -12262,7 +12272,7 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>572</v>
@@ -12272,7 +12282,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>6</v>
@@ -12282,7 +12292,7 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>6</v>
@@ -12292,7 +12302,7 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>29</v>
@@ -12302,7 +12312,7 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>533</v>
@@ -12312,7 +12322,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>29</v>
@@ -12322,7 +12332,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>572</v>
@@ -12332,7 +12342,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>134</v>
@@ -12342,7 +12352,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>134</v>
@@ -12352,7 +12362,7 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>572</v>
@@ -12362,7 +12372,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>29</v>
@@ -12372,17 +12382,17 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C158" s="0"/>
       <c r="D158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>6</v>
@@ -12392,7 +12402,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>6</v>
@@ -12402,7 +12412,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>115</v>
@@ -12412,17 +12422,17 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="C162" s="0"/>
       <c r="D162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>6</v>
@@ -12432,7 +12442,7 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>6</v>
@@ -12442,7 +12452,7 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>115</v>
@@ -12452,7 +12462,7 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>6</v>
@@ -12462,7 +12472,7 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>63</v>
@@ -12472,7 +12482,7 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>6</v>
@@ -12482,7 +12492,7 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>6</v>
@@ -12492,7 +12502,7 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>115</v>
@@ -12502,7 +12512,7 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>115</v>
@@ -12512,7 +12522,7 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>6</v>
@@ -12522,7 +12532,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>6</v>
@@ -12532,7 +12542,7 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>6</v>
@@ -12542,7 +12552,7 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>6</v>
@@ -12552,7 +12562,7 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>6</v>
@@ -12562,7 +12572,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>264</v>
@@ -12572,7 +12582,7 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>6</v>
@@ -12582,7 +12592,7 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>6</v>
@@ -12592,7 +12602,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>6</v>
@@ -12602,7 +12612,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>6</v>
@@ -12629,7 +12639,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="C21:I21 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12652,7 +12662,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12665,18 +12675,18 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>12.47</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>12.47</v>
@@ -12700,8 +12710,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12713,78 +12723,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12792,31 +12802,31 @@
         <v>428</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="6" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="6" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="6" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12824,7 +12834,7 @@
         <v>443</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12832,16 +12842,11 @@
         <v>445</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="6" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>1111</v>
-      </c>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
@@ -12850,7 +12855,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="6" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
@@ -12858,7 +12863,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="6" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0</v>
@@ -12866,7 +12871,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="6" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
@@ -12894,7 +12899,7 @@
         <v>1114</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
